--- a/src/assets/templates/Modelo_Avaliacao_360.xlsx
+++ b/src/assets/templates/Modelo_Avaliacao_360.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="8555"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Informação" sheetId="1" r:id="rId1"/>
@@ -1695,8 +1695,8 @@
   <sheetPr/>
   <dimension ref="B1:J51"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="O36" sqref="O36"/>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2360,8 +2360,11 @@
     <mergeCell ref="E43:I43"/>
     <mergeCell ref="E50:I50"/>
   </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31:D50">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D31">
+      <formula1>"Avaliado,Gestor,Par,Subordinado,Outros"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D32:D50">
       <formula1>"Avaliado,Gestor,Par,Subordinado"</formula1>
     </dataValidation>
   </dataValidations>
